--- a/historique_articles.xlsx
+++ b/historique_articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoufiq/Documents/IT/pfe_brief_my_press_AI-main/pfe_brief_my_press_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D852BC-8BB9-0E49-9905-31010D00AC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30852A6-6335-9349-92AE-327C5E664BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{ECDE3C8E-E503-964F-A871-26E4C7BE2FF4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>article_length</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>abstractiveSummary_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +573,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>406</v>
       </c>
@@ -580,7 +583,9 @@
       <c r="C9">
         <v>64</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
